--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Fall.121119.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Fall.121119.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3041,12 +3041,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3713,12 +3713,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4007,12 +4007,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4779,12 +4779,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4947,12 +4947,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5199,12 +5199,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5745,12 +5745,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5787,12 +5787,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5955,12 +5955,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6207,12 +6207,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6249,12 +6249,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6417,12 +6417,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6543,12 +6543,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6715,12 +6715,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7093,12 +7093,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7135,12 +7135,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7177,12 +7177,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7219,12 +7219,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7303,12 +7303,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7429,12 +7429,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7723,12 +7723,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7765,12 +7765,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8189,12 +8189,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8525,12 +8525,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8609,12 +8609,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8777,12 +8777,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9071,12 +9071,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9323,12 +9323,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9365,12 +9365,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9407,12 +9407,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9533,12 +9533,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9659,12 +9659,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9701,12 +9701,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9953,12 +9953,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10125,12 +10125,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10209,12 +10209,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10293,12 +10293,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10335,12 +10335,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10377,12 +10377,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10419,12 +10419,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10755,12 +10755,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11637,12 +11637,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12141,12 +12141,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12225,12 +12225,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12561,12 +12561,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12771,12 +12771,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12897,12 +12897,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13829,12 +13829,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14081,12 +14081,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14799,12 +14799,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14841,12 +14841,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15051,12 +15051,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15507,12 +15507,12 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15633,12 +15633,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16775,12 +16775,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17069,12 +17069,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17111,12 +17111,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
